--- a/Data/the_neon_elena.xlsx
+++ b/Data/the_neon_elena.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daehyun/Documents/FERMI 20144077 Ueda/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC32CF2-9468-AB47-803D-90C81A024530}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874EA238-B59F-FB4F-A1FB-BCFF4F4606B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37940" yWindow="1100" windowWidth="33040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35020" yWindow="1500" windowWidth="33040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="latest" sheetId="2" r:id="rId1"/>
-    <sheet name="20180215" sheetId="1" r:id="rId2"/>
+    <sheet name="20180915" sheetId="2" r:id="rId1"/>
+    <sheet name="20180905" sheetId="3" r:id="rId2"/>
+    <sheet name="20180215" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>w_photon (au)</t>
     <phoneticPr fontId="19"/>
@@ -42,6 +43,15 @@
   </si>
   <si>
     <t>phase_scatt (rad)</t>
+  </si>
+  <si>
+    <t>phase_m1 (rad)</t>
+  </si>
+  <si>
+    <t>phase_m2 (rad)</t>
+  </si>
+  <si>
+    <t>phase_m3 (rad)</t>
   </si>
 </sst>
 </file>
@@ -639,7 +649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,6 +686,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -999,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1117691E-9541-FB45-B867-E77CF91FBB5A}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1369,6 +1381,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C102B3C-735E-464E-A0FA-E9307C23BA15}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12">
+        <v>14.3</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1.60221192</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1.7278756</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1.8849552000000001</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2.1991144</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2.1991144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12">
+        <v>15.9</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1.7278756</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1.79070744</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1.5393800799999999</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2.0734507199999999</v>
+      </c>
+      <c r="F3" s="13">
+        <v>2.0734507199999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1.3508845599999999</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1.22522088</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1.4137164</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1.8849552000000001</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1.7210000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
